--- a/storage/app/public/input data/displacements/sahel_central.xlsx
+++ b/storage/app/public/input data/displacements/sahel_central.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\database\storage\app\public\input data\displacements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations.sharepoint.com/sites/OCHAROWCA/Information Management/30 DataBase/datas/displacements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB026DF-A1C5-44A2-9187-59F7325B85E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{ECB026DF-A1C5-44A2-9187-59F7325B85E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B388A054-6A54-411B-8CF1-945AC13C4A8A}"/>
   <bookViews>
-    <workbookView xWindow="40605" yWindow="2385" windowWidth="23040" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="101">
   <si>
     <t>Country</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Tombouctou</t>
   </si>
   <si>
-    <t>TIllaberi</t>
-  </si>
-  <si>
     <t>NE06</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Nord</t>
   </si>
   <si>
-    <t>Plateau central</t>
-  </si>
-  <si>
     <t>Sahel</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>CMP 21 Nov. 2019</t>
   </si>
   <si>
-    <t>SÃ©gou</t>
-  </si>
-  <si>
     <t>UNHCR Data Portal</t>
   </si>
   <si>
@@ -257,7 +248,94 @@
     <t>Tahoua Tillaberi Niamey</t>
   </si>
   <si>
-    <t>Tillabéri</t>
+    <t>BF46</t>
+  </si>
+  <si>
+    <t>CONASUR as of 28/02/2021</t>
+  </si>
+  <si>
+    <t>BF47</t>
+  </si>
+  <si>
+    <t>BF13</t>
+  </si>
+  <si>
+    <t>BF48</t>
+  </si>
+  <si>
+    <t>BF49</t>
+  </si>
+  <si>
+    <t>BF50</t>
+  </si>
+  <si>
+    <t>BF51</t>
+  </si>
+  <si>
+    <t>BF52</t>
+  </si>
+  <si>
+    <t>BF53</t>
+  </si>
+  <si>
+    <t>BF54</t>
+  </si>
+  <si>
+    <t>BF55</t>
+  </si>
+  <si>
+    <t>BF56</t>
+  </si>
+  <si>
+    <t>BF57</t>
+  </si>
+  <si>
+    <t>ML09</t>
+  </si>
+  <si>
+    <t>CMP 30 Janvier 2021</t>
+  </si>
+  <si>
+    <t>ML07</t>
+  </si>
+  <si>
+    <t>ML01</t>
+  </si>
+  <si>
+    <t>ML08</t>
+  </si>
+  <si>
+    <t>ML02</t>
+  </si>
+  <si>
+    <t>ML05</t>
+  </si>
+  <si>
+    <t>ML04</t>
+  </si>
+  <si>
+    <t>ML03</t>
+  </si>
+  <si>
+    <t>ML06</t>
+  </si>
+  <si>
+    <t>UNHCR Niger Population of Concern 28 February 2021</t>
+  </si>
+  <si>
+    <t>UNHCR as of 31/12/2020</t>
+  </si>
+  <si>
+    <t>UNHCR data as of 31/01/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Returnees former IDPs and rapatried : CMP 30 Janvier 2021 </t>
+  </si>
+  <si>
+    <t>NE04</t>
+  </si>
+  <si>
+    <t>NE08</t>
   </si>
 </sst>
 </file>
@@ -318,8 +396,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H254" totalsRowShown="0">
-  <autoFilter ref="A1:H254" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{40130A66-C840-49DE-ABC0-EFD791C7B012}" name="Tableau1" displayName="Tableau1" ref="A1:H300" totalsRowShown="0">
+  <autoFilter ref="A1:H300" xr:uid="{9F9617B1-413C-4756-ABAE-AE0530F37F96}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Niger"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H117">
     <sortCondition ref="H1:H117"/>
   </sortState>
@@ -600,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H254"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="D241" sqref="D241"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -652,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -667,7 +751,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -678,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -693,7 +777,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -704,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -719,7 +803,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -730,7 +814,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -745,7 +829,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -756,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -771,7 +855,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -797,7 +881,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -808,7 +892,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -823,7 +907,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -834,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -849,7 +933,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -860,7 +944,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -875,7 +959,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -886,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -901,7 +985,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -912,7 +996,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -927,7 +1011,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -938,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -953,7 +1037,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -964,7 +1048,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -979,7 +1063,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1089,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +1100,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1031,7 +1115,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1042,7 +1126,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1057,7 +1141,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1152,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1091,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1117,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1135,7 +1219,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1230,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1161,7 +1245,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1187,7 +1271,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1198,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1213,7 +1297,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1308,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -1239,7 +1323,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1265,7 +1349,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1276,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1291,7 +1375,7 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1302,7 +1386,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1325,10 +1409,10 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1351,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -1377,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
         <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1403,10 +1487,10 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -1421,18 +1505,18 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
-        <v>37</v>
-      </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
@@ -1441,24 +1525,24 @@
         <v>8588</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H32" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -1467,24 +1551,24 @@
         <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
@@ -1493,24 +1577,24 @@
         <v>1051</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
@@ -1519,24 +1603,24 @@
         <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H35" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -1545,24 +1629,24 @@
         <v>270476</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1571,24 +1655,24 @@
         <v>635</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
@@ -1597,24 +1681,24 @@
         <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
@@ -1623,24 +1707,24 @@
         <v>10293</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
@@ -1649,24 +1733,24 @@
         <v>558</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1675,24 +1759,24 @@
         <v>31998</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -1701,24 +1785,24 @@
         <v>1222</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1727,24 +1811,24 @@
         <v>160741</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1753,21 +1837,21 @@
         <v>284</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44" s="1">
         <v>43795</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -1785,18 +1869,18 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -1811,18 +1895,18 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1837,18 +1921,18 @@
         <v>43795</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
@@ -1857,24 +1941,24 @@
         <v>284</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
@@ -1883,24 +1967,24 @@
         <v>212298</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
         <v>8</v>
@@ -1909,24 +1993,24 @@
         <v>4718</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
         <v>8</v>
@@ -1935,24 +2019,24 @@
         <v>38244</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
         <v>8</v>
@@ -1961,24 +2045,24 @@
         <v>3510</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
         <v>8</v>
@@ -1987,24 +2071,24 @@
         <v>17484</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s">
         <v>8</v>
@@ -2013,24 +2097,24 @@
         <v>1773</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
         <v>8</v>
@@ -2039,24 +2123,24 @@
         <v>635</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
         <v>8</v>
@@ -2065,21 +2149,21 @@
         <v>270476</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -2091,21 +2175,21 @@
         <v>555</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H57" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -2117,21 +2201,21 @@
         <v>1051</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -2143,21 +2227,21 @@
         <v>268</v>
       </c>
       <c r="G59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H59" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
         <v>36</v>
-      </c>
-      <c r="C60" t="s">
-        <v>37</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -2169,24 +2253,24 @@
         <v>8737</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H60" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -2201,15 +2285,15 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -2227,18 +2311,18 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2253,7 +2337,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2264,7 +2348,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
         <v>8</v>
@@ -2273,13 +2357,13 @@
         <v>2350</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H64" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2374,7 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
@@ -2299,13 +2383,13 @@
         <v>55702</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H65" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2316,7 +2400,7 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -2325,13 +2409,13 @@
         <v>1445</v>
       </c>
       <c r="G66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H66" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2342,7 +2426,7 @@
         <v>21</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E67" t="s">
         <v>8</v>
@@ -2351,13 +2435,13 @@
         <v>890</v>
       </c>
       <c r="G67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H67" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -2368,7 +2452,7 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E68" t="s">
         <v>8</v>
@@ -2377,13 +2461,13 @@
         <v>2031</v>
       </c>
       <c r="G68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H68" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -2403,13 +2487,13 @@
         <v>17758</v>
       </c>
       <c r="G69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H69" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -2420,7 +2504,7 @@
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -2429,13 +2513,13 @@
         <v>69679</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H70" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -2446,7 +2530,7 @@
         <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
         <v>8</v>
@@ -2455,13 +2539,13 @@
         <v>24291</v>
       </c>
       <c r="G71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H71" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2472,7 +2556,7 @@
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
         <v>8</v>
@@ -2481,13 +2565,13 @@
         <v>2598</v>
       </c>
       <c r="G72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H72" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2498,7 +2582,7 @@
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E73" t="s">
         <v>8</v>
@@ -2507,13 +2591,13 @@
         <v>22641</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H73" s="1">
         <v>43829</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2539,7 +2623,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -2550,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2565,7 +2649,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -2576,7 +2660,7 @@
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2591,7 +2675,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -2602,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2617,7 +2701,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2643,7 +2727,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2738,7 @@
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2669,7 +2753,7 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2677,10 +2761,10 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2703,10 +2787,10 @@
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2729,10 +2813,10 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" t="s">
         <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>31</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2755,10 +2839,10 @@
         <v>10</v>
       </c>
       <c r="C83" t="s">
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
         <v>28</v>
-      </c>
-      <c r="D83" t="s">
-        <v>29</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -2781,10 +2865,10 @@
         <v>10</v>
       </c>
       <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" t="s">
         <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>31</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -2799,18 +2883,18 @@
         <v>43829</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D85" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -2819,21 +2903,21 @@
         <v>24690</v>
       </c>
       <c r="G85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H85" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -2845,24 +2929,24 @@
         <v>663</v>
       </c>
       <c r="G86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H86" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2871,13 +2955,13 @@
         <v>515</v>
       </c>
       <c r="G87" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H87" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2972,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -2897,13 +2981,13 @@
         <v>2350</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H88" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2914,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -2923,13 +3007,13 @@
         <v>1890</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H89" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2940,7 +3024,7 @@
         <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E90" t="s">
         <v>8</v>
@@ -2949,13 +3033,13 @@
         <v>58040</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H90" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2966,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2975,13 +3059,13 @@
         <v>6084</v>
       </c>
       <c r="G91" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H91" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -2992,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -3001,13 +3085,13 @@
         <v>1624</v>
       </c>
       <c r="G92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H92" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -3018,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3027,13 +3111,13 @@
         <v>15271</v>
       </c>
       <c r="G93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H93" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -3044,7 +3128,7 @@
         <v>21</v>
       </c>
       <c r="D94" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -3053,13 +3137,13 @@
         <v>890</v>
       </c>
       <c r="G94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H94" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -3070,7 +3154,7 @@
         <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -3079,13 +3163,13 @@
         <v>2031</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H95" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3105,13 +3189,13 @@
         <v>17758</v>
       </c>
       <c r="G96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H96" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3131,13 +3215,13 @@
         <v>1024</v>
       </c>
       <c r="G97" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H97" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -3148,7 +3232,7 @@
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -3157,13 +3241,13 @@
         <v>75528</v>
       </c>
       <c r="G98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H98" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -3174,7 +3258,7 @@
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3183,13 +3267,13 @@
         <v>24291</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H99" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -3200,7 +3284,7 @@
         <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3209,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H100" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -3226,7 +3310,7 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E101" t="s">
         <v>8</v>
@@ -3235,13 +3319,13 @@
         <v>2598</v>
       </c>
       <c r="G101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H101" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3252,7 +3336,7 @@
         <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3261,13 +3345,13 @@
         <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H102" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3278,7 +3362,7 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E103" t="s">
         <v>8</v>
@@ -3287,13 +3371,13 @@
         <v>22641</v>
       </c>
       <c r="G103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H103" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -3304,7 +3388,7 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -3313,7 +3397,7 @@
         <v>2373</v>
       </c>
       <c r="G104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H104" s="1">
         <v>43871</v>
@@ -3327,10 +3411,10 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" t="s">
         <v>30</v>
-      </c>
-      <c r="D105" t="s">
-        <v>31</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -3339,7 +3423,7 @@
         <v>19133</v>
       </c>
       <c r="G105" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H105" s="1">
         <v>43871</v>
@@ -3353,10 +3437,10 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" t="s">
         <v>30</v>
-      </c>
-      <c r="D106" t="s">
-        <v>31</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -3365,7 +3449,7 @@
         <v>23319</v>
       </c>
       <c r="G106" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H106" s="1">
         <v>43871</v>
@@ -3379,10 +3463,10 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -3391,7 +3475,7 @@
         <v>37769</v>
       </c>
       <c r="G107" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H107" s="1">
         <v>43871</v>
@@ -3405,10 +3489,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
         <v>28</v>
-      </c>
-      <c r="D108" t="s">
-        <v>29</v>
       </c>
       <c r="E108" t="s">
         <v>8</v>
@@ -3417,13 +3501,13 @@
         <v>59170</v>
       </c>
       <c r="G108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H108" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3434,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -3443,13 +3527,13 @@
         <v>552</v>
       </c>
       <c r="G109" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H109" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +3544,7 @@
         <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -3469,13 +3553,13 @@
         <v>166786</v>
       </c>
       <c r="G110" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H110" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -3486,7 +3570,7 @@
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -3495,13 +3579,13 @@
         <v>219</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H111" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -3512,7 +3596,7 @@
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E112" t="s">
         <v>13</v>
@@ -3521,13 +3605,13 @@
         <v>4249</v>
       </c>
       <c r="G112" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H112" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -3538,7 +3622,7 @@
         <v>22</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E113" t="s">
         <v>13</v>
@@ -3547,13 +3631,13 @@
         <v>215</v>
       </c>
       <c r="G113" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H113" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3573,13 +3657,13 @@
         <v>82193</v>
       </c>
       <c r="G114" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H114" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3590,7 +3674,7 @@
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E115" t="s">
         <v>13</v>
@@ -3599,13 +3683,13 @@
         <v>48747</v>
       </c>
       <c r="G115" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H115" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E116" t="s">
         <v>13</v>
@@ -3625,13 +3709,13 @@
         <v>4296</v>
       </c>
       <c r="G116" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H116" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -3642,7 +3726,7 @@
         <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="E117" t="s">
         <v>13</v>
@@ -3651,24 +3735,24 @@
         <v>330397</v>
       </c>
       <c r="G117" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H117" s="1">
         <v>43871</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B118" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" t="s">
         <v>36</v>
       </c>
-      <c r="C118" t="s">
-        <v>37</v>
-      </c>
       <c r="D118" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3677,24 +3761,24 @@
         <v>10662</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H118" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
         <v>8</v>
@@ -3703,24 +3787,24 @@
         <v>268</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H119" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E120" t="s">
         <v>8</v>
@@ -3729,24 +3813,24 @@
         <v>1051</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H120" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -3755,24 +3839,24 @@
         <v>13372</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="E122" t="s">
         <v>8</v>
@@ -3781,24 +3865,24 @@
         <v>383925</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E123" t="s">
         <v>8</v>
@@ -3807,24 +3891,24 @@
         <v>635</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H123" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="E124" t="s">
         <v>8</v>
@@ -3833,24 +3917,24 @@
         <v>1773</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D125" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E125" t="s">
         <v>8</v>
@@ -3859,24 +3943,24 @@
         <v>18329</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D126" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E126" t="s">
         <v>8</v>
@@ -3885,24 +3969,24 @@
         <v>4011</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H126" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E127" t="s">
         <v>8</v>
@@ -3911,24 +3995,24 @@
         <v>42396</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H127" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E128" t="s">
         <v>8</v>
@@ -3937,24 +4021,24 @@
         <v>5765</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
         <v>8</v>
@@ -3963,24 +4047,24 @@
         <v>283046</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -3989,21 +4073,24 @@
         <v>284</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130" s="1">
         <v>43875</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s">
         <v>36</v>
       </c>
-      <c r="C131" t="s">
-        <v>37</v>
+      <c r="D131" t="s">
+        <v>71</v>
       </c>
       <c r="E131" t="s">
         <v>8</v>
@@ -4012,21 +4099,24 @@
         <v>15979</v>
       </c>
       <c r="G131" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H131" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>73</v>
       </c>
       <c r="E132" t="s">
         <v>8</v>
@@ -4035,21 +4125,24 @@
         <v>5845</v>
       </c>
       <c r="G132" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H132" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D133" t="s">
+        <v>83</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4058,21 +4151,24 @@
         <v>20195</v>
       </c>
       <c r="G133" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H133" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>74</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -4081,21 +4177,24 @@
         <v>1051</v>
       </c>
       <c r="G134" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H134" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D135" t="s">
+        <v>75</v>
       </c>
       <c r="E135" t="s">
         <v>8</v>
@@ -4104,21 +4203,24 @@
         <v>13372</v>
       </c>
       <c r="G135" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H135" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D136" t="s">
+        <v>76</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -4127,21 +4229,24 @@
         <v>387203</v>
       </c>
       <c r="G136" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H136" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D137" t="s">
+        <v>80</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -4150,21 +4255,24 @@
         <v>513</v>
       </c>
       <c r="G137" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H137" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C138" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D138" t="s">
+        <v>77</v>
       </c>
       <c r="E138" t="s">
         <v>8</v>
@@ -4173,21 +4281,24 @@
         <v>635</v>
       </c>
       <c r="G138" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H138" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C139" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D139" t="s">
+        <v>78</v>
       </c>
       <c r="E139" t="s">
         <v>8</v>
@@ -4196,21 +4307,24 @@
         <v>1773</v>
       </c>
       <c r="G139" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H139" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C140" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D140" t="s">
+        <v>79</v>
       </c>
       <c r="E140" t="s">
         <v>8</v>
@@ -4219,21 +4333,24 @@
         <v>20283</v>
       </c>
       <c r="G140" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H140" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>80</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -4242,21 +4359,24 @@
         <v>10357</v>
       </c>
       <c r="G141" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H141" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C142" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D142" t="s">
+        <v>81</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -4265,21 +4385,24 @@
         <v>66659</v>
       </c>
       <c r="G142" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H142" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D143" t="s">
+        <v>82</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -4288,21 +4411,24 @@
         <v>13034</v>
       </c>
       <c r="G143" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H143" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D144" t="s">
+        <v>74</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -4311,21 +4437,24 @@
         <v>665</v>
       </c>
       <c r="G144" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H144" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D145" t="s">
+        <v>83</v>
       </c>
       <c r="E145" t="s">
         <v>8</v>
@@ -4334,21 +4463,24 @@
         <v>310066</v>
       </c>
       <c r="G145" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H145" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D146" t="s">
+        <v>84</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -4357,13 +4489,13 @@
         <v>2072</v>
       </c>
       <c r="G146" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H146" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>14</v>
       </c>
@@ -4373,6 +4505,9 @@
       <c r="C147" t="s">
         <v>16</v>
       </c>
+      <c r="D147" t="s">
+        <v>85</v>
+      </c>
       <c r="E147" t="s">
         <v>8</v>
       </c>
@@ -4380,13 +4515,13 @@
         <v>2350</v>
       </c>
       <c r="G147" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H147" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4396,6 +4531,9 @@
       <c r="C148" t="s">
         <v>20</v>
       </c>
+      <c r="D148" t="s">
+        <v>88</v>
+      </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
@@ -4403,13 +4541,13 @@
         <v>15271</v>
       </c>
       <c r="G148" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H148" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -4419,6 +4557,9 @@
       <c r="C149" t="s">
         <v>19</v>
       </c>
+      <c r="D149" t="s">
+        <v>87</v>
+      </c>
       <c r="E149" t="s">
         <v>8</v>
       </c>
@@ -4426,13 +4567,13 @@
         <v>58040</v>
       </c>
       <c r="G149" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H149" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -4442,6 +4583,9 @@
       <c r="C150" t="s">
         <v>19</v>
       </c>
+      <c r="D150" t="s">
+        <v>87</v>
+      </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
@@ -4449,13 +4593,13 @@
         <v>6084</v>
       </c>
       <c r="G150" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H150" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>14</v>
       </c>
@@ -4465,6 +4609,9 @@
       <c r="C151" t="s">
         <v>20</v>
       </c>
+      <c r="D151" t="s">
+        <v>88</v>
+      </c>
       <c r="E151" t="s">
         <v>8</v>
       </c>
@@ -4472,13 +4619,13 @@
         <v>1624</v>
       </c>
       <c r="G151" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H151" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>14</v>
       </c>
@@ -4488,6 +4635,9 @@
       <c r="C152" t="s">
         <v>27</v>
       </c>
+      <c r="D152" t="s">
+        <v>94</v>
+      </c>
       <c r="E152" t="s">
         <v>11</v>
       </c>
@@ -4495,13 +4645,13 @@
         <v>2373</v>
       </c>
       <c r="G152" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H152" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>14</v>
       </c>
@@ -4511,6 +4661,9 @@
       <c r="C153" t="s">
         <v>21</v>
       </c>
+      <c r="D153" t="s">
+        <v>89</v>
+      </c>
       <c r="E153" t="s">
         <v>8</v>
       </c>
@@ -4518,13 +4671,13 @@
         <v>890</v>
       </c>
       <c r="G153" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H153" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4534,6 +4687,9 @@
       <c r="C154" t="s">
         <v>22</v>
       </c>
+      <c r="D154" t="s">
+        <v>90</v>
+      </c>
       <c r="E154" t="s">
         <v>8</v>
       </c>
@@ -4541,13 +4697,13 @@
         <v>2031</v>
       </c>
       <c r="G154" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H154" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4564,13 +4720,13 @@
         <v>17758</v>
       </c>
       <c r="G155" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H155" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4580,6 +4736,9 @@
       <c r="C156" t="s">
         <v>16</v>
       </c>
+      <c r="D156" t="s">
+        <v>85</v>
+      </c>
       <c r="E156" t="s">
         <v>11</v>
       </c>
@@ -4587,13 +4746,13 @@
         <v>1871</v>
       </c>
       <c r="G156" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H156" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4603,6 +4762,9 @@
       <c r="C157" t="s">
         <v>24</v>
       </c>
+      <c r="D157" t="s">
+        <v>91</v>
+      </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
@@ -4610,13 +4772,13 @@
         <v>2035</v>
       </c>
       <c r="G157" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H157" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -4626,6 +4788,9 @@
       <c r="C158" t="s">
         <v>24</v>
       </c>
+      <c r="D158" t="s">
+        <v>91</v>
+      </c>
       <c r="E158" t="s">
         <v>8</v>
       </c>
@@ -4633,13 +4798,13 @@
         <v>86313</v>
       </c>
       <c r="G158" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H158" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -4649,6 +4814,9 @@
       <c r="C159" t="s">
         <v>25</v>
       </c>
+      <c r="D159" t="s">
+        <v>92</v>
+      </c>
       <c r="E159" t="s">
         <v>8</v>
       </c>
@@ -4656,13 +4824,13 @@
         <v>24291</v>
       </c>
       <c r="G159" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H159" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -4679,13 +4847,13 @@
         <v>1024</v>
       </c>
       <c r="G160" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H160" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -4695,6 +4863,9 @@
       <c r="C161" t="s">
         <v>26</v>
       </c>
+      <c r="D161" t="s">
+        <v>93</v>
+      </c>
       <c r="E161" t="s">
         <v>8</v>
       </c>
@@ -4702,13 +4873,13 @@
         <v>2598</v>
       </c>
       <c r="G161" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H161" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4718,6 +4889,9 @@
       <c r="C162" t="s">
         <v>26</v>
       </c>
+      <c r="D162" t="s">
+        <v>93</v>
+      </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
@@ -4725,13 +4899,13 @@
         <v>107</v>
       </c>
       <c r="G162" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H162" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4741,6 +4915,9 @@
       <c r="C163" t="s">
         <v>27</v>
       </c>
+      <c r="D163" t="s">
+        <v>94</v>
+      </c>
       <c r="E163" t="s">
         <v>8</v>
       </c>
@@ -4748,13 +4925,13 @@
         <v>22641</v>
       </c>
       <c r="G163" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H163" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4764,6 +4941,9 @@
       <c r="C164" t="s">
         <v>16</v>
       </c>
+      <c r="D164" t="s">
+        <v>85</v>
+      </c>
       <c r="E164" t="s">
         <v>13</v>
       </c>
@@ -4771,13 +4951,13 @@
         <v>552</v>
       </c>
       <c r="G164" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H164" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -4787,6 +4967,9 @@
       <c r="C165" t="s">
         <v>19</v>
       </c>
+      <c r="D165" t="s">
+        <v>87</v>
+      </c>
       <c r="E165" t="s">
         <v>13</v>
       </c>
@@ -4794,13 +4977,13 @@
         <v>166830</v>
       </c>
       <c r="G165" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H165" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -4810,6 +4993,9 @@
       <c r="C166" t="s">
         <v>20</v>
       </c>
+      <c r="D166" t="s">
+        <v>88</v>
+      </c>
       <c r="E166" t="s">
         <v>13</v>
       </c>
@@ -4817,13 +5003,13 @@
         <v>219</v>
       </c>
       <c r="G166" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H166" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -4833,6 +5019,9 @@
       <c r="C167" t="s">
         <v>21</v>
       </c>
+      <c r="D167" t="s">
+        <v>89</v>
+      </c>
       <c r="E167" t="s">
         <v>13</v>
       </c>
@@ -4840,13 +5029,13 @@
         <v>4249</v>
       </c>
       <c r="G167" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H167" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4856,6 +5045,9 @@
       <c r="C168" t="s">
         <v>22</v>
       </c>
+      <c r="D168" t="s">
+        <v>90</v>
+      </c>
       <c r="E168" t="s">
         <v>13</v>
       </c>
@@ -4863,13 +5055,13 @@
         <v>215</v>
       </c>
       <c r="G168" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H168" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4886,13 +5078,13 @@
         <v>82667</v>
       </c>
       <c r="G169" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H169" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4902,6 +5094,9 @@
       <c r="C170" t="s">
         <v>24</v>
       </c>
+      <c r="D170" t="s">
+        <v>91</v>
+      </c>
       <c r="E170" t="s">
         <v>13</v>
       </c>
@@ -4909,13 +5104,13 @@
         <v>48746</v>
       </c>
       <c r="G170" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H170" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -4925,6 +5120,9 @@
       <c r="C171" t="s">
         <v>25</v>
       </c>
+      <c r="D171" t="s">
+        <v>92</v>
+      </c>
       <c r="E171" t="s">
         <v>13</v>
       </c>
@@ -4932,13 +5130,13 @@
         <v>4301</v>
       </c>
       <c r="G171" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H171" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -4948,6 +5146,9 @@
       <c r="C172" t="s">
         <v>27</v>
       </c>
+      <c r="D172" t="s">
+        <v>94</v>
+      </c>
       <c r="E172" t="s">
         <v>13</v>
       </c>
@@ -4955,7 +5156,7 @@
         <v>330463</v>
       </c>
       <c r="G172" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H172" s="1">
         <v>43945</v>
@@ -4969,10 +5170,10 @@
         <v>10</v>
       </c>
       <c r="C173" t="s">
+        <v>29</v>
+      </c>
+      <c r="D173" t="s">
         <v>30</v>
-      </c>
-      <c r="D173" t="s">
-        <v>31</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -4981,7 +5182,7 @@
         <v>19998</v>
       </c>
       <c r="G173" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H173" s="1">
         <v>43945</v>
@@ -4995,10 +5196,10 @@
         <v>10</v>
       </c>
       <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
         <v>30</v>
-      </c>
-      <c r="D174" t="s">
-        <v>31</v>
       </c>
       <c r="E174" t="s">
         <v>8</v>
@@ -5007,7 +5208,7 @@
         <v>25729</v>
       </c>
       <c r="G174" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H174" s="1">
         <v>43945</v>
@@ -5021,10 +5222,10 @@
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -5033,7 +5234,7 @@
         <v>39600</v>
       </c>
       <c r="G175" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H175" s="1">
         <v>43945</v>
@@ -5047,10 +5248,10 @@
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E176" t="s">
         <v>8</v>
@@ -5059,21 +5260,24 @@
         <v>71368</v>
       </c>
       <c r="G176" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H176" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C177" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D177" t="s">
+        <v>73</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
@@ -5082,21 +5286,24 @@
         <v>1</v>
       </c>
       <c r="G177" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H177" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D178" t="s">
+        <v>76</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -5105,21 +5312,24 @@
         <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H178" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C179" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D179" t="s">
+        <v>78</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
@@ -5128,21 +5338,24 @@
         <v>0</v>
       </c>
       <c r="G179" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H179" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C180" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D180" t="s">
+        <v>74</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
@@ -5151,21 +5364,24 @@
         <v>1183</v>
       </c>
       <c r="G180" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H180" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D181" t="s">
+        <v>80</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
@@ -5174,21 +5390,24 @@
         <v>523</v>
       </c>
       <c r="G181" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H181" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C182" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D182" t="s">
+        <v>82</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -5197,21 +5416,24 @@
         <v>0</v>
       </c>
       <c r="G182" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H182" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D183" t="s">
+        <v>83</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -5220,21 +5442,24 @@
         <v>19179</v>
       </c>
       <c r="G183" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H183" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B184" t="s">
+        <v>35</v>
+      </c>
+      <c r="C184" t="s">
         <v>36</v>
       </c>
-      <c r="C184" t="s">
-        <v>37</v>
+      <c r="D184" t="s">
+        <v>71</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -5243,21 +5468,24 @@
         <v>0</v>
       </c>
       <c r="G184" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H184" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>75</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -5266,21 +5494,24 @@
         <v>0</v>
       </c>
       <c r="G185" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H185" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D186" t="s">
+        <v>77</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -5289,21 +5520,24 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H186" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D187" t="s">
+        <v>79</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -5312,21 +5546,24 @@
         <v>0</v>
       </c>
       <c r="G187" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H187" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C188" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D188" t="s">
+        <v>81</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
@@ -5335,21 +5572,24 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H188" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D189" t="s">
+        <v>84</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
@@ -5358,13 +5598,13 @@
         <v>0</v>
       </c>
       <c r="G189" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H189" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5374,6 +5614,9 @@
       <c r="C190" t="s">
         <v>21</v>
       </c>
+      <c r="D190" t="s">
+        <v>89</v>
+      </c>
       <c r="E190" t="s">
         <v>8</v>
       </c>
@@ -5381,13 +5624,13 @@
         <v>890</v>
       </c>
       <c r="G190" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H190" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5397,6 +5640,9 @@
       <c r="C191" t="s">
         <v>25</v>
       </c>
+      <c r="D191" t="s">
+        <v>92</v>
+      </c>
       <c r="E191" t="s">
         <v>8</v>
       </c>
@@ -5404,13 +5650,13 @@
         <v>23624</v>
       </c>
       <c r="G191" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H191" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5420,6 +5666,9 @@
       <c r="C192" t="s">
         <v>26</v>
       </c>
+      <c r="D192" t="s">
+        <v>93</v>
+      </c>
       <c r="E192" t="s">
         <v>8</v>
       </c>
@@ -5427,13 +5676,13 @@
         <v>2598</v>
       </c>
       <c r="G192" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H192" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -5443,6 +5692,9 @@
       <c r="C193" t="s">
         <v>22</v>
       </c>
+      <c r="D193" t="s">
+        <v>90</v>
+      </c>
       <c r="E193" t="s">
         <v>8</v>
       </c>
@@ -5450,13 +5702,13 @@
         <v>1985</v>
       </c>
       <c r="G193" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H193" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5466,6 +5718,9 @@
       <c r="C194" t="s">
         <v>16</v>
       </c>
+      <c r="D194" t="s">
+        <v>85</v>
+      </c>
       <c r="E194" t="s">
         <v>8</v>
       </c>
@@ -5473,13 +5728,13 @@
         <v>3107</v>
       </c>
       <c r="G194" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H194" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -5489,6 +5744,9 @@
       <c r="C195" t="s">
         <v>24</v>
       </c>
+      <c r="D195" t="s">
+        <v>91</v>
+      </c>
       <c r="E195" t="s">
         <v>8</v>
       </c>
@@ -5496,13 +5754,13 @@
         <v>102132</v>
       </c>
       <c r="G195" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H195" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5512,6 +5770,9 @@
       <c r="C196" t="s">
         <v>20</v>
       </c>
+      <c r="D196" t="s">
+        <v>88</v>
+      </c>
       <c r="E196" t="s">
         <v>8</v>
       </c>
@@ -5519,13 +5780,13 @@
         <v>1624</v>
       </c>
       <c r="G196" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H196" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5535,6 +5796,9 @@
       <c r="C197" t="s">
         <v>19</v>
       </c>
+      <c r="D197" t="s">
+        <v>87</v>
+      </c>
       <c r="E197" t="s">
         <v>8</v>
       </c>
@@ -5542,13 +5806,13 @@
         <v>84334</v>
       </c>
       <c r="G197" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H197" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -5558,6 +5822,9 @@
       <c r="C198" t="s">
         <v>27</v>
       </c>
+      <c r="D198" t="s">
+        <v>94</v>
+      </c>
       <c r="E198" t="s">
         <v>8</v>
       </c>
@@ -5565,13 +5832,13 @@
         <v>37723</v>
       </c>
       <c r="G198" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H198" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -5581,6 +5848,9 @@
       <c r="C199" t="s">
         <v>21</v>
       </c>
+      <c r="D199" t="s">
+        <v>89</v>
+      </c>
       <c r="E199" t="s">
         <v>11</v>
       </c>
@@ -5588,13 +5858,13 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H199" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -5604,6 +5874,9 @@
       <c r="C200" t="s">
         <v>25</v>
       </c>
+      <c r="D200" t="s">
+        <v>92</v>
+      </c>
       <c r="E200" t="s">
         <v>11</v>
       </c>
@@ -5611,13 +5884,13 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H200" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -5627,6 +5900,9 @@
       <c r="C201" t="s">
         <v>26</v>
       </c>
+      <c r="D201" t="s">
+        <v>93</v>
+      </c>
       <c r="E201" t="s">
         <v>11</v>
       </c>
@@ -5634,13 +5910,13 @@
         <v>107</v>
       </c>
       <c r="G201" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H201" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5650,6 +5926,9 @@
       <c r="C202" t="s">
         <v>22</v>
       </c>
+      <c r="D202" t="s">
+        <v>90</v>
+      </c>
       <c r="E202" t="s">
         <v>11</v>
       </c>
@@ -5657,13 +5936,13 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H202" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5673,6 +5952,9 @@
       <c r="C203" t="s">
         <v>16</v>
       </c>
+      <c r="D203" t="s">
+        <v>85</v>
+      </c>
       <c r="E203" t="s">
         <v>11</v>
       </c>
@@ -5680,13 +5962,13 @@
         <v>2941</v>
       </c>
       <c r="G203" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H203" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -5696,6 +5978,9 @@
       <c r="C204" t="s">
         <v>24</v>
       </c>
+      <c r="D204" t="s">
+        <v>91</v>
+      </c>
       <c r="E204" t="s">
         <v>11</v>
       </c>
@@ -5703,13 +5988,13 @@
         <v>2035</v>
       </c>
       <c r="G204" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H204" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -5719,6 +6004,9 @@
       <c r="C205" t="s">
         <v>20</v>
       </c>
+      <c r="D205" t="s">
+        <v>88</v>
+      </c>
       <c r="E205" t="s">
         <v>11</v>
       </c>
@@ -5726,13 +6014,13 @@
         <v>15271</v>
       </c>
       <c r="G205" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H205" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -5742,6 +6030,9 @@
       <c r="C206" t="s">
         <v>19</v>
       </c>
+      <c r="D206" t="s">
+        <v>87</v>
+      </c>
       <c r="E206" t="s">
         <v>11</v>
       </c>
@@ -5749,13 +6040,13 @@
         <v>23022</v>
       </c>
       <c r="G206" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H206" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -5765,6 +6056,9 @@
       <c r="C207" t="s">
         <v>27</v>
       </c>
+      <c r="D207" t="s">
+        <v>94</v>
+      </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
@@ -5772,7 +6066,7 @@
         <v>2373</v>
       </c>
       <c r="G207" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H207" s="1">
         <v>43982</v>
@@ -5786,10 +6080,10 @@
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208" t="s">
         <v>8</v>
@@ -5798,7 +6092,7 @@
         <v>74633</v>
       </c>
       <c r="G208" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H208" s="1">
         <v>43982</v>
@@ -5812,10 +6106,10 @@
         <v>10</v>
       </c>
       <c r="C209" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" t="s">
         <v>30</v>
-      </c>
-      <c r="D209" t="s">
-        <v>31</v>
       </c>
       <c r="E209" t="s">
         <v>8</v>
@@ -5824,7 +6118,7 @@
         <v>34308</v>
       </c>
       <c r="G209" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H209" s="1">
         <v>43982</v>
@@ -5838,10 +6132,10 @@
         <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E210" t="s">
         <v>11</v>
@@ -5850,7 +6144,7 @@
         <v>33558</v>
       </c>
       <c r="G210" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H210" s="1">
         <v>43982</v>
@@ -5864,10 +6158,10 @@
         <v>10</v>
       </c>
       <c r="C211" t="s">
+        <v>29</v>
+      </c>
+      <c r="D211" t="s">
         <v>30</v>
-      </c>
-      <c r="D211" t="s">
-        <v>31</v>
       </c>
       <c r="E211" t="s">
         <v>11</v>
@@ -5876,21 +6170,24 @@
         <v>19133</v>
       </c>
       <c r="G211" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H211" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D212" t="s">
+        <v>73</v>
       </c>
       <c r="E212" t="s">
         <v>8</v>
@@ -5899,21 +6196,24 @@
         <v>5845</v>
       </c>
       <c r="G212" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H212" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C213" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D213" t="s">
+        <v>76</v>
       </c>
       <c r="E213" t="s">
         <v>8</v>
@@ -5922,21 +6222,24 @@
         <v>387203</v>
       </c>
       <c r="G213" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H213" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C214" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D214" t="s">
+        <v>78</v>
       </c>
       <c r="E214" t="s">
         <v>8</v>
@@ -5945,21 +6248,24 @@
         <v>1773</v>
       </c>
       <c r="G214" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H214" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D215" t="s">
+        <v>74</v>
       </c>
       <c r="E215" t="s">
         <v>8</v>
@@ -5968,21 +6274,24 @@
         <v>1051</v>
       </c>
       <c r="G215" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H215" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C216" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D216" t="s">
+        <v>80</v>
       </c>
       <c r="E216" t="s">
         <v>8</v>
@@ -5991,21 +6300,24 @@
         <v>10357</v>
       </c>
       <c r="G216" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H216" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C217" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D217" t="s">
+        <v>82</v>
       </c>
       <c r="E217" t="s">
         <v>8</v>
@@ -6014,21 +6326,24 @@
         <v>13034</v>
       </c>
       <c r="G217" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H217" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C218" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D218" t="s">
+        <v>83</v>
       </c>
       <c r="E218" t="s">
         <v>8</v>
@@ -6037,21 +6352,24 @@
         <v>310066</v>
       </c>
       <c r="G218" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H218" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B219" t="s">
+        <v>35</v>
+      </c>
+      <c r="C219" t="s">
         <v>36</v>
       </c>
-      <c r="C219" t="s">
-        <v>37</v>
+      <c r="D219" t="s">
+        <v>71</v>
       </c>
       <c r="E219" t="s">
         <v>8</v>
@@ -6060,21 +6378,24 @@
         <v>15979</v>
       </c>
       <c r="G219" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H219" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D220" t="s">
+        <v>75</v>
       </c>
       <c r="E220" t="s">
         <v>8</v>
@@ -6083,21 +6404,24 @@
         <v>13372</v>
       </c>
       <c r="G220" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H220" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D221" t="s">
+        <v>77</v>
       </c>
       <c r="E221" t="s">
         <v>8</v>
@@ -6106,21 +6430,24 @@
         <v>635</v>
       </c>
       <c r="G221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H221" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C222" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D222" t="s">
+        <v>79</v>
       </c>
       <c r="E222" t="s">
         <v>8</v>
@@ -6129,21 +6456,24 @@
         <v>20283</v>
       </c>
       <c r="G222" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H222" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C223" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D223" t="s">
+        <v>81</v>
       </c>
       <c r="E223" t="s">
         <v>8</v>
@@ -6152,21 +6482,24 @@
         <v>66659</v>
       </c>
       <c r="G223" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H223" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D224" t="s">
+        <v>84</v>
       </c>
       <c r="E224" t="s">
         <v>8</v>
@@ -6175,13 +6508,13 @@
         <v>2072</v>
       </c>
       <c r="G224" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H224" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -6191,6 +6524,9 @@
       <c r="C225" t="s">
         <v>16</v>
       </c>
+      <c r="D225" t="s">
+        <v>85</v>
+      </c>
       <c r="E225" t="s">
         <v>8</v>
       </c>
@@ -6198,13 +6534,13 @@
         <v>3107</v>
       </c>
       <c r="G225" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H225" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -6214,6 +6550,9 @@
       <c r="C226" t="s">
         <v>19</v>
       </c>
+      <c r="D226" t="s">
+        <v>87</v>
+      </c>
       <c r="E226" t="s">
         <v>8</v>
       </c>
@@ -6221,13 +6560,13 @@
         <v>87574</v>
       </c>
       <c r="G226" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H226" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>14</v>
       </c>
@@ -6237,6 +6576,9 @@
       <c r="C227" t="s">
         <v>20</v>
       </c>
+      <c r="D227" t="s">
+        <v>88</v>
+      </c>
       <c r="E227" t="s">
         <v>8</v>
       </c>
@@ -6244,13 +6586,13 @@
         <v>1624</v>
       </c>
       <c r="G227" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H227" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>14</v>
       </c>
@@ -6260,6 +6602,9 @@
       <c r="C228" t="s">
         <v>21</v>
       </c>
+      <c r="D228" t="s">
+        <v>89</v>
+      </c>
       <c r="E228" t="s">
         <v>8</v>
       </c>
@@ -6267,13 +6612,13 @@
         <v>890</v>
       </c>
       <c r="G228" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H228" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>14</v>
       </c>
@@ -6283,6 +6628,9 @@
       <c r="C229" t="s">
         <v>22</v>
       </c>
+      <c r="D229" t="s">
+        <v>90</v>
+      </c>
       <c r="E229" t="s">
         <v>8</v>
       </c>
@@ -6290,13 +6638,13 @@
         <v>2195</v>
       </c>
       <c r="G229" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H229" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>14</v>
       </c>
@@ -6306,6 +6654,9 @@
       <c r="C230" t="s">
         <v>24</v>
       </c>
+      <c r="D230" t="s">
+        <v>91</v>
+      </c>
       <c r="E230" t="s">
         <v>8</v>
       </c>
@@ -6313,13 +6664,13 @@
         <v>113043</v>
       </c>
       <c r="G230" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H230" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>14</v>
       </c>
@@ -6329,6 +6680,9 @@
       <c r="C231" t="s">
         <v>25</v>
       </c>
+      <c r="D231" t="s">
+        <v>92</v>
+      </c>
       <c r="E231" t="s">
         <v>8</v>
       </c>
@@ -6336,13 +6690,13 @@
         <v>29146</v>
       </c>
       <c r="G231" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H231" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -6352,6 +6706,9 @@
       <c r="C232" t="s">
         <v>26</v>
       </c>
+      <c r="D232" t="s">
+        <v>93</v>
+      </c>
       <c r="E232" t="s">
         <v>8</v>
       </c>
@@ -6359,13 +6716,13 @@
         <v>6300</v>
       </c>
       <c r="G232" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H232" s="1">
         <v>44043</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -6375,6 +6732,9 @@
       <c r="C233" t="s">
         <v>27</v>
       </c>
+      <c r="D233" t="s">
+        <v>94</v>
+      </c>
       <c r="E233" t="s">
         <v>8</v>
       </c>
@@ -6382,7 +6742,7 @@
         <v>43617</v>
       </c>
       <c r="G233" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H233" s="1">
         <v>44043</v>
@@ -6396,10 +6756,10 @@
         <v>10</v>
       </c>
       <c r="C234" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" t="s">
         <v>30</v>
-      </c>
-      <c r="D234" t="s">
-        <v>31</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -6422,10 +6782,10 @@
         <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -6440,12 +6800,15 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E236" t="s">
         <v>11</v>
@@ -6460,15 +6823,18 @@
         <v>44074</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B237" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
         <v>36</v>
       </c>
-      <c r="C237" t="s">
-        <v>37</v>
+      <c r="D237" t="s">
+        <v>71</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -6477,21 +6843,24 @@
         <v>44859</v>
       </c>
       <c r="G237" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H237" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C238" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D238" t="s">
+        <v>73</v>
       </c>
       <c r="E238" t="s">
         <v>8</v>
@@ -6500,21 +6869,24 @@
         <v>7729</v>
       </c>
       <c r="G238" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H238" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C239" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D239" t="s">
+        <v>74</v>
       </c>
       <c r="E239" t="s">
         <v>8</v>
@@ -6523,21 +6895,24 @@
         <v>1051</v>
       </c>
       <c r="G239" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H239" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="D240" t="s">
+        <v>75</v>
       </c>
       <c r="E240" t="s">
         <v>8</v>
@@ -6546,21 +6921,24 @@
         <v>23392</v>
       </c>
       <c r="G240" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H240" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C241" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D241" t="s">
+        <v>76</v>
       </c>
       <c r="E241" t="s">
         <v>8</v>
@@ -6569,21 +6947,24 @@
         <v>422267</v>
       </c>
       <c r="G241" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H241" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D242" t="s">
+        <v>77</v>
       </c>
       <c r="E242" t="s">
         <v>8</v>
@@ -6592,21 +6973,24 @@
         <v>11126</v>
       </c>
       <c r="G242" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H242" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="D243" t="s">
+        <v>78</v>
       </c>
       <c r="E243" t="s">
         <v>8</v>
@@ -6615,21 +6999,24 @@
         <v>2325</v>
       </c>
       <c r="G243" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H243" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C244" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D244" t="s">
+        <v>79</v>
       </c>
       <c r="E244" t="s">
         <v>8</v>
@@ -6638,21 +7025,24 @@
         <v>66460</v>
       </c>
       <c r="G244" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H244" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C245" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="D245" t="s">
+        <v>80</v>
       </c>
       <c r="E245" t="s">
         <v>8</v>
@@ -6661,21 +7051,24 @@
         <v>18281</v>
       </c>
       <c r="G245" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H245" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C246" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D246" t="s">
+        <v>81</v>
       </c>
       <c r="E246" t="s">
         <v>8</v>
@@ -6684,21 +7077,24 @@
         <v>74527</v>
       </c>
       <c r="G246" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H246" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C247" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D247" t="s">
+        <v>82</v>
       </c>
       <c r="E247" t="s">
         <v>8</v>
@@ -6707,21 +7103,24 @@
         <v>14460</v>
       </c>
       <c r="G247" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H247" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C248" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D248" t="s">
+        <v>83</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
@@ -6730,21 +7129,24 @@
         <v>344569</v>
       </c>
       <c r="G248" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H248" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D249" t="s">
+        <v>84</v>
       </c>
       <c r="E249" t="s">
         <v>8</v>
@@ -6753,18 +7155,18 @@
         <v>3563</v>
       </c>
       <c r="G249" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H249" s="1">
         <v>44082</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -6779,7 +7181,7 @@
         <v>44097</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6803,11 +7205,14 @@
       <c r="A252" t="s">
         <v>9</v>
       </c>
+      <c r="B252" t="s">
+        <v>10</v>
+      </c>
       <c r="C252" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" t="s">
         <v>30</v>
-      </c>
-      <c r="D252" t="s">
-        <v>31</v>
       </c>
       <c r="E252" t="s">
         <v>11</v>
@@ -6816,7 +7221,7 @@
         <v>19990</v>
       </c>
       <c r="G252" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H252" s="1">
         <v>44104</v>
@@ -6826,11 +7231,14 @@
       <c r="A253" t="s">
         <v>9</v>
       </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
       <c r="C253" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="D253" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -6839,7 +7247,7 @@
         <v>40065</v>
       </c>
       <c r="G253" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H253" s="1">
         <v>44104</v>
@@ -6849,8 +7257,14 @@
       <c r="A254" t="s">
         <v>9</v>
       </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
       <c r="C254" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="D254" t="s">
+        <v>100</v>
       </c>
       <c r="E254" t="s">
         <v>11</v>
@@ -6859,10 +7273,1197 @@
         <v>668</v>
       </c>
       <c r="G254" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H254" s="1">
         <v>44104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255" t="s">
+        <v>35</v>
+      </c>
+      <c r="C255" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" t="s">
+        <v>71</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>44899</v>
+      </c>
+      <c r="G255" t="s">
+        <v>72</v>
+      </c>
+      <c r="H255" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" t="s">
+        <v>35</v>
+      </c>
+      <c r="C256" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" t="s">
+        <v>73</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>8253</v>
+      </c>
+      <c r="G256" t="s">
+        <v>72</v>
+      </c>
+      <c r="H256" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>34</v>
+      </c>
+      <c r="B257" t="s">
+        <v>35</v>
+      </c>
+      <c r="C257" t="s">
+        <v>49</v>
+      </c>
+      <c r="D257" t="s">
+        <v>74</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257">
+        <v>1051</v>
+      </c>
+      <c r="G257" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>34</v>
+      </c>
+      <c r="B258" t="s">
+        <v>35</v>
+      </c>
+      <c r="C258" t="s">
+        <v>40</v>
+      </c>
+      <c r="D258" t="s">
+        <v>75</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>29142</v>
+      </c>
+      <c r="G258" t="s">
+        <v>72</v>
+      </c>
+      <c r="H258" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>34</v>
+      </c>
+      <c r="B259" t="s">
+        <v>35</v>
+      </c>
+      <c r="C259" t="s">
+        <v>41</v>
+      </c>
+      <c r="D259" t="s">
+        <v>76</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>445869</v>
+      </c>
+      <c r="G259" t="s">
+        <v>72</v>
+      </c>
+      <c r="H259" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>34</v>
+      </c>
+      <c r="B260" t="s">
+        <v>35</v>
+      </c>
+      <c r="C260" t="s">
+        <v>42</v>
+      </c>
+      <c r="D260" t="s">
+        <v>77</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260">
+        <v>11126</v>
+      </c>
+      <c r="G260" t="s">
+        <v>72</v>
+      </c>
+      <c r="H260" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>34</v>
+      </c>
+      <c r="B261" t="s">
+        <v>35</v>
+      </c>
+      <c r="C261" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261" t="s">
+        <v>78</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>4008</v>
+      </c>
+      <c r="G261" t="s">
+        <v>72</v>
+      </c>
+      <c r="H261" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>34</v>
+      </c>
+      <c r="B262" t="s">
+        <v>35</v>
+      </c>
+      <c r="C262" t="s">
+        <v>44</v>
+      </c>
+      <c r="D262" t="s">
+        <v>79</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <v>84827</v>
+      </c>
+      <c r="G262" t="s">
+        <v>72</v>
+      </c>
+      <c r="H262" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>34</v>
+      </c>
+      <c r="B263" t="s">
+        <v>35</v>
+      </c>
+      <c r="C263" t="s">
+        <v>45</v>
+      </c>
+      <c r="D263" t="s">
+        <v>80</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263">
+        <v>21221</v>
+      </c>
+      <c r="G263" t="s">
+        <v>72</v>
+      </c>
+      <c r="H263" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>34</v>
+      </c>
+      <c r="B264" t="s">
+        <v>35</v>
+      </c>
+      <c r="C264" t="s">
+        <v>46</v>
+      </c>
+      <c r="D264" t="s">
+        <v>81</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>92826</v>
+      </c>
+      <c r="G264" t="s">
+        <v>72</v>
+      </c>
+      <c r="H264" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>34</v>
+      </c>
+      <c r="B265" t="s">
+        <v>35</v>
+      </c>
+      <c r="C265" t="s">
+        <v>50</v>
+      </c>
+      <c r="D265" t="s">
+        <v>82</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>15583</v>
+      </c>
+      <c r="G265" t="s">
+        <v>72</v>
+      </c>
+      <c r="H265" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" t="s">
+        <v>35</v>
+      </c>
+      <c r="C266" t="s">
+        <v>47</v>
+      </c>
+      <c r="D266" t="s">
+        <v>83</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266">
+        <v>355909</v>
+      </c>
+      <c r="G266" t="s">
+        <v>72</v>
+      </c>
+      <c r="H266" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" t="s">
+        <v>35</v>
+      </c>
+      <c r="C267" t="s">
+        <v>48</v>
+      </c>
+      <c r="D267" t="s">
+        <v>84</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267">
+        <v>7246</v>
+      </c>
+      <c r="G267" t="s">
+        <v>72</v>
+      </c>
+      <c r="H267" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268" t="s">
+        <v>15</v>
+      </c>
+      <c r="C268" t="s">
+        <v>16</v>
+      </c>
+      <c r="D268" t="s">
+        <v>85</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268">
+        <v>4142</v>
+      </c>
+      <c r="G268" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+      <c r="C269" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" t="s">
+        <v>87</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>69984</v>
+      </c>
+      <c r="G269" t="s">
+        <v>86</v>
+      </c>
+      <c r="H269" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C270" t="s">
+        <v>20</v>
+      </c>
+      <c r="D270" t="s">
+        <v>88</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270">
+        <v>2574</v>
+      </c>
+      <c r="G270" t="s">
+        <v>86</v>
+      </c>
+      <c r="H270" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271" t="s">
+        <v>15</v>
+      </c>
+      <c r="C271" t="s">
+        <v>21</v>
+      </c>
+      <c r="D271" t="s">
+        <v>89</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>890</v>
+      </c>
+      <c r="G271" t="s">
+        <v>86</v>
+      </c>
+      <c r="H271" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s">
+        <v>15</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" t="s">
+        <v>90</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>3140</v>
+      </c>
+      <c r="G272" t="s">
+        <v>86</v>
+      </c>
+      <c r="H272" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273" t="s">
+        <v>15</v>
+      </c>
+      <c r="C273" t="s">
+        <v>23</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>22429</v>
+      </c>
+      <c r="G273" t="s">
+        <v>86</v>
+      </c>
+      <c r="H273" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274" t="s">
+        <v>15</v>
+      </c>
+      <c r="C274" t="s">
+        <v>24</v>
+      </c>
+      <c r="D274" t="s">
+        <v>91</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274">
+        <v>144899</v>
+      </c>
+      <c r="G274" t="s">
+        <v>86</v>
+      </c>
+      <c r="H274" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275" t="s">
+        <v>15</v>
+      </c>
+      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="D275" t="s">
+        <v>92</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275">
+        <v>39461</v>
+      </c>
+      <c r="G275" t="s">
+        <v>86</v>
+      </c>
+      <c r="H275" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="s">
+        <v>26</v>
+      </c>
+      <c r="D276" t="s">
+        <v>93</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276">
+        <v>5802</v>
+      </c>
+      <c r="G276" t="s">
+        <v>86</v>
+      </c>
+      <c r="H276" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>94</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>53543</v>
+      </c>
+      <c r="G277" t="s">
+        <v>86</v>
+      </c>
+      <c r="H277" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" t="s">
+        <v>29</v>
+      </c>
+      <c r="D278" t="s">
+        <v>30</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>55625</v>
+      </c>
+      <c r="G278" t="s">
+        <v>95</v>
+      </c>
+      <c r="H278" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279">
+        <v>82604</v>
+      </c>
+      <c r="G279" t="s">
+        <v>95</v>
+      </c>
+      <c r="H279" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>34</v>
+      </c>
+      <c r="B280" t="s">
+        <v>35</v>
+      </c>
+      <c r="C280" t="s">
+        <v>49</v>
+      </c>
+      <c r="D280" t="s">
+        <v>74</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280">
+        <v>1736</v>
+      </c>
+      <c r="G280" t="s">
+        <v>96</v>
+      </c>
+      <c r="H280" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>34</v>
+      </c>
+      <c r="B281" t="s">
+        <v>35</v>
+      </c>
+      <c r="C281" t="s">
+        <v>45</v>
+      </c>
+      <c r="D281" t="s">
+        <v>80</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281">
+        <v>551</v>
+      </c>
+      <c r="G281" t="s">
+        <v>96</v>
+      </c>
+      <c r="H281" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>34</v>
+      </c>
+      <c r="B282" t="s">
+        <v>35</v>
+      </c>
+      <c r="C282" t="s">
+        <v>47</v>
+      </c>
+      <c r="D282" t="s">
+        <v>83</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282">
+        <v>17969</v>
+      </c>
+      <c r="G282" t="s">
+        <v>96</v>
+      </c>
+      <c r="H282" s="1">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" t="s">
+        <v>85</v>
+      </c>
+      <c r="E283" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283">
+        <v>2958</v>
+      </c>
+      <c r="G283" t="s">
+        <v>97</v>
+      </c>
+      <c r="H283" s="1">
+        <v>44227</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284" t="s">
+        <v>15</v>
+      </c>
+      <c r="C284" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" t="s">
+        <v>87</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284">
+        <v>6740</v>
+      </c>
+      <c r="G284" t="s">
+        <v>97</v>
+      </c>
+      <c r="H284" s="1">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" t="s">
+        <v>15</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>88</v>
+      </c>
+      <c r="E285" t="s">
+        <v>11</v>
+      </c>
+      <c r="F285">
+        <v>15851</v>
+      </c>
+      <c r="G285" t="s">
+        <v>97</v>
+      </c>
+      <c r="H285" s="1">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" t="s">
+        <v>23</v>
+      </c>
+      <c r="E286" t="s">
+        <v>11</v>
+      </c>
+      <c r="F286">
+        <v>16282</v>
+      </c>
+      <c r="G286" t="s">
+        <v>97</v>
+      </c>
+      <c r="H286" s="1">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287" t="s">
+        <v>15</v>
+      </c>
+      <c r="C287" t="s">
+        <v>24</v>
+      </c>
+      <c r="D287" t="s">
+        <v>91</v>
+      </c>
+      <c r="E287" t="s">
+        <v>11</v>
+      </c>
+      <c r="F287">
+        <v>4240</v>
+      </c>
+      <c r="G287" t="s">
+        <v>97</v>
+      </c>
+      <c r="H287" s="1">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288" t="s">
+        <v>15</v>
+      </c>
+      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" t="s">
+        <v>93</v>
+      </c>
+      <c r="E288" t="s">
+        <v>11</v>
+      </c>
+      <c r="F288">
+        <v>107</v>
+      </c>
+      <c r="G288" t="s">
+        <v>97</v>
+      </c>
+      <c r="H288" s="1">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" t="s">
+        <v>94</v>
+      </c>
+      <c r="E289" t="s">
+        <v>11</v>
+      </c>
+      <c r="F289">
+        <v>2373</v>
+      </c>
+      <c r="G289" t="s">
+        <v>97</v>
+      </c>
+      <c r="H289" s="1">
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290" t="s">
+        <v>30</v>
+      </c>
+      <c r="E290" t="s">
+        <v>11</v>
+      </c>
+      <c r="F290">
+        <v>20236</v>
+      </c>
+      <c r="G290" t="s">
+        <v>95</v>
+      </c>
+      <c r="H290" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>10</v>
+      </c>
+      <c r="C291" t="s">
+        <v>32</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" t="s">
+        <v>11</v>
+      </c>
+      <c r="F291">
+        <v>36163</v>
+      </c>
+      <c r="G291" t="s">
+        <v>95</v>
+      </c>
+      <c r="H291" s="1">
+        <v>44255</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" t="s">
+        <v>16</v>
+      </c>
+      <c r="D292" t="s">
+        <v>85</v>
+      </c>
+      <c r="E292" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292">
+        <v>563</v>
+      </c>
+      <c r="G292" t="s">
+        <v>98</v>
+      </c>
+      <c r="H292" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" t="s">
+        <v>19</v>
+      </c>
+      <c r="D293" t="s">
+        <v>87</v>
+      </c>
+      <c r="E293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293">
+        <v>178746</v>
+      </c>
+      <c r="G293" t="s">
+        <v>98</v>
+      </c>
+      <c r="H293" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294" t="s">
+        <v>15</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" t="s">
+        <v>88</v>
+      </c>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294">
+        <v>231</v>
+      </c>
+      <c r="G294" t="s">
+        <v>98</v>
+      </c>
+      <c r="H294" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" t="s">
+        <v>21</v>
+      </c>
+      <c r="D295" t="s">
+        <v>89</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295">
+        <v>4237</v>
+      </c>
+      <c r="G295" t="s">
+        <v>98</v>
+      </c>
+      <c r="H295" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296" t="s">
+        <v>90</v>
+      </c>
+      <c r="E296" t="s">
+        <v>13</v>
+      </c>
+      <c r="F296">
+        <v>215</v>
+      </c>
+      <c r="G296" t="s">
+        <v>98</v>
+      </c>
+      <c r="H296" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" t="s">
+        <v>13</v>
+      </c>
+      <c r="F297">
+        <v>84593</v>
+      </c>
+      <c r="G297" t="s">
+        <v>98</v>
+      </c>
+      <c r="H297" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" t="s">
+        <v>24</v>
+      </c>
+      <c r="D298" t="s">
+        <v>91</v>
+      </c>
+      <c r="E298" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298">
+        <v>50414</v>
+      </c>
+      <c r="G298" t="s">
+        <v>98</v>
+      </c>
+      <c r="H298" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>25</v>
+      </c>
+      <c r="D299" t="s">
+        <v>92</v>
+      </c>
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299">
+        <v>4554</v>
+      </c>
+      <c r="G299" t="s">
+        <v>98</v>
+      </c>
+      <c r="H299" s="1">
+        <v>44226</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" t="s">
+        <v>94</v>
+      </c>
+      <c r="E300" t="s">
+        <v>13</v>
+      </c>
+      <c r="F300">
+        <v>343267</v>
+      </c>
+      <c r="G300" t="s">
+        <v>98</v>
+      </c>
+      <c r="H300" s="1">
+        <v>44226</v>
       </c>
     </row>
   </sheetData>
@@ -6871,4 +8472,272 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D56D188CBA27BF43BA16AB0991F8810A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d74f8ed3820e849c6c24bebf382cead">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2d04cdad-faad-4bbc-9725-fbca26071bed" xmlns:ns3="d4bd7185-3ccc-47d5-be69-542fd420c7c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92b3107f17917cdf1896d29dfba996e5" ns2:_="" ns3:_="">
+    <xsd:import namespace="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <xsd:import namespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2d04cdad-faad-4bbc-9725-fbca26071bed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="13" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d4bd7185-3ccc-47d5-be69-542fd420c7c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="14" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="15" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="4" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="3" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D7C177-0B09-4F38-9419-0530A4766BA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2d04cdad-faad-4bbc-9725-fbca26071bed"/>
+    <ds:schemaRef ds:uri="d4bd7185-3ccc-47d5-be69-542fd420c7c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E868D79B-5BDA-458B-863C-29CB2DD2FD35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB4632-2938-4719-9D27-A08EB85E8823}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>